--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
   <si>
     <t>Y.Sasi Kumar</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Month's Attendance and Leave Tracker - July 2016</t>
+  </si>
+  <si>
+    <t>holiday</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -529,6 +532,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3157,7 +3163,7 @@
   <dimension ref="A4:AR16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3501,7 +3507,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -3555,7 +3563,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="18"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -3632,7 +3640,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="3"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -3708,7 +3716,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="18"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -3785,7 +3793,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="3"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
@@ -3861,7 +3869,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="18"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -3920,7 +3928,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="3"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -3978,7 +3986,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="18"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -4037,7 +4045,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="3"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -4103,11 +4111,12 @@
       <c r="AB16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C4:AF4"/>
     <mergeCell ref="AJ5:AL5"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="I7:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="AL14">
     <cfRule type="iconSet" priority="1">

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="40">
   <si>
     <t>Y.Sasi Kumar</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Month's Attendance and Leave Tracker - July 2016</t>
   </si>
   <si>
-    <t>holiday</t>
+    <t>HOLIDAY</t>
   </si>
 </sst>
 </file>
@@ -148,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -533,8 +540,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3163,7 +3173,7 @@
   <dimension ref="A4:AR16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3560,16 +3570,30 @@
         <v>1</v>
       </c>
       <c r="E8" s="37"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
       <c r="I8" s="44"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="M8" s="18">
+        <v>1</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
@@ -3590,7 +3614,7 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="9">
         <f t="shared" ref="AH8:AH15" si="0">SUM(C8:AF8)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI8" s="9">
         <v>24</v>
@@ -3637,16 +3661,30 @@
         <v>1</v>
       </c>
       <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
       <c r="I9" s="44"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -3666,7 +3704,7 @@
       <c r="AG9" s="16"/>
       <c r="AH9" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI9" s="9">
         <v>24</v>
@@ -3713,16 +3751,30 @@
         <v>1</v>
       </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
       <c r="I10" s="44"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="45" t="s">
+        <v>16</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="M10" s="18">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18">
+        <v>1</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
@@ -3743,14 +3795,16 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI10" s="9">
         <v>24</v>
       </c>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="20"/>
-      <c r="AL10" s="32"/>
+      <c r="AL10" s="32">
+        <v>1</v>
+      </c>
       <c r="AM10" s="31">
         <f>'June 2016'!AO10</f>
         <v>3.5</v>
@@ -3773,7 +3827,7 @@
       </c>
       <c r="AR10" s="32">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -3790,16 +3844,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
       <c r="I11" s="44"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -3819,7 +3887,7 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI11" s="9">
         <v>24</v>
@@ -3866,16 +3934,30 @@
         <v>1</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
       <c r="I12" s="44"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="M12" s="18">
+        <v>1</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
@@ -3896,7 +3978,7 @@
       <c r="AG12" s="16"/>
       <c r="AH12" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI12" s="9">
         <v>24</v>
@@ -3925,16 +4007,30 @@
         <v>1</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
       <c r="I13" s="44"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -3954,7 +4050,7 @@
       <c r="AG13" s="16"/>
       <c r="AH13" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI13" s="9">
         <v>24</v>
@@ -3983,16 +4079,30 @@
         <v>1</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
       <c r="I14" s="44"/>
-      <c r="J14" s="18"/>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="M14" s="18">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18">
+        <v>1</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
@@ -4013,7 +4123,7 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI14" s="9">
         <v>24</v>
@@ -4042,16 +4152,30 @@
         <v>1</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
       <c r="I15" s="44"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -4072,7 +4196,7 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI15" s="9">
         <v>24</v>
@@ -4129,5 +4253,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="41">
   <si>
     <t>Y.Sasi Kumar</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">late </t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -525,6 +528,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,9 +549,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,38 +903,38 @@
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:40" s="3" customFormat="1" ht="18.75">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
@@ -1026,16 +1030,16 @@
       <c r="AE5" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="40" t="s">
+      <c r="AI5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40" t="s">
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
     </row>
     <row r="6" spans="1:40" ht="30">
       <c r="A6" s="10" t="s">
@@ -1872,38 +1876,38 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:43" s="3" customFormat="1" ht="19.5" thickBot="1">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
     </row>
@@ -1998,21 +2002,21 @@
       <c r="AF5" t="s">
         <v>12</v>
       </c>
-      <c r="AI5" s="41" t="s">
+      <c r="AI5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="41" t="s">
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="41" t="s">
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="30">
       <c r="A6" s="17" t="s">
@@ -3170,10 +3174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:AR16"/>
+  <dimension ref="A4:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3219,38 +3223,38 @@
         <v>37</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
       <c r="AI4" s="36"/>
@@ -3358,21 +3362,21 @@
       <c r="AG5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AJ5" s="41" t="s">
+      <c r="AJ5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="41" t="s">
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="41" t="s">
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="44"/>
     </row>
     <row r="6" spans="1:44" ht="30">
       <c r="A6" s="17" t="s">
@@ -3517,7 +3521,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="45" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="3"/>
@@ -3579,7 +3583,7 @@
       <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="18">
         <v>1</v>
       </c>
@@ -3670,7 +3674,7 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="3">
         <v>1</v>
       </c>
@@ -3760,8 +3764,8 @@
       <c r="H10" s="18">
         <v>1</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="39" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="16"/>
@@ -3853,7 +3857,7 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="3">
         <v>1</v>
       </c>
@@ -3943,7 +3947,7 @@
       <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="18">
         <v>1</v>
       </c>
@@ -4016,7 +4020,7 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="3">
         <v>1</v>
       </c>
@@ -4088,7 +4092,7 @@
       <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="18">
         <v>1</v>
       </c>
@@ -4161,7 +4165,7 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="3">
         <v>1</v>
       </c>
@@ -4233,6 +4237,12 @@
       <c r="U16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May 2016'!$AI$6:$AK$6</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -531,6 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,7 +550,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,38 +903,38 @@
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:40" s="3" customFormat="1" ht="18.75">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
@@ -1030,16 +1030,16 @@
       <c r="AE5" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="41" t="s">
+      <c r="AI5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41" t="s">
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
     </row>
     <row r="6" spans="1:40" ht="30">
       <c r="A6" s="10" t="s">
@@ -1876,38 +1876,38 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:43" s="3" customFormat="1" ht="19.5" thickBot="1">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
     </row>
@@ -2002,21 +2002,21 @@
       <c r="AF5" t="s">
         <v>12</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AI5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="42" t="s">
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="42" t="s">
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="30">
       <c r="A6" s="17" t="s">
@@ -3177,7 +3177,7 @@
   <dimension ref="A4:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3223,38 +3223,38 @@
         <v>37</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
       <c r="AI4" s="36"/>
@@ -3362,21 +3362,21 @@
       <c r="AG5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AJ5" s="42" t="s">
+      <c r="AJ5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="42" t="s">
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="42" t="s">
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
     </row>
     <row r="6" spans="1:44" ht="30">
       <c r="A6" s="17" t="s">
@@ -3521,7 +3521,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="46" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="3"/>
@@ -3583,7 +3583,7 @@
       <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="45"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="18">
         <v>1</v>
       </c>
@@ -3598,8 +3598,12 @@
       <c r="O8" s="18">
         <v>1</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
       <c r="R8" s="18"/>
       <c r="S8" s="16"/>
       <c r="T8" s="18"/>
@@ -3618,7 +3622,7 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="9">
         <f t="shared" ref="AH8:AH15" si="0">SUM(C8:AF8)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI8" s="9">
         <v>24</v>
@@ -3674,7 +3678,7 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="3">
         <v>1</v>
       </c>
@@ -3689,8 +3693,12 @@
       <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="16"/>
       <c r="T9" s="3"/>
@@ -3708,7 +3716,7 @@
       <c r="AG9" s="16"/>
       <c r="AH9" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI9" s="9">
         <v>24</v>
@@ -3764,7 +3772,7 @@
       <c r="H10" s="18">
         <v>1</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="39" t="s">
         <v>16</v>
       </c>
@@ -3779,8 +3787,12 @@
       <c r="O10" s="18">
         <v>1</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="P10" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>1</v>
+      </c>
       <c r="R10" s="18"/>
       <c r="S10" s="16"/>
       <c r="T10" s="18"/>
@@ -3799,7 +3811,7 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI10" s="9">
         <v>24</v>
@@ -3857,7 +3869,7 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="45"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="3">
         <v>1</v>
       </c>
@@ -3872,8 +3884,12 @@
       <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="16"/>
       <c r="T11" s="14"/>
@@ -3891,7 +3907,7 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI11" s="9">
         <v>24</v>
@@ -3947,7 +3963,7 @@
       <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="18">
         <v>1</v>
       </c>
@@ -3962,8 +3978,12 @@
       <c r="O12" s="18">
         <v>1</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="P12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>1</v>
+      </c>
       <c r="R12" s="18"/>
       <c r="S12" s="16"/>
       <c r="T12" s="18"/>
@@ -3982,7 +4002,7 @@
       <c r="AG12" s="16"/>
       <c r="AH12" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI12" s="9">
         <v>24</v>
@@ -4020,7 +4040,7 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="3">
         <v>1</v>
       </c>
@@ -4035,8 +4055,12 @@
       <c r="O13" s="3">
         <v>1</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="16"/>
       <c r="T13" s="3"/>
@@ -4054,7 +4078,7 @@
       <c r="AG13" s="16"/>
       <c r="AH13" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI13" s="9">
         <v>24</v>
@@ -4092,7 +4116,7 @@
       <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="18">
         <v>1</v>
       </c>
@@ -4107,8 +4131,12 @@
       <c r="O14" s="18">
         <v>1</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="P14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>1</v>
+      </c>
       <c r="R14" s="18"/>
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
@@ -4127,7 +4155,7 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI14" s="9">
         <v>24</v>
@@ -4165,7 +4193,7 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="3">
         <v>1</v>
       </c>
@@ -4180,8 +4208,12 @@
       <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="16"/>
       <c r="T15" s="3"/>
@@ -4200,7 +4232,7 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI15" s="9">
         <v>24</v>
@@ -4242,7 +4274,7 @@
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -547,7 +547,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -3176,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:AR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May 2016'!$AI$6:$AK$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -549,6 +549,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3177,7 +3180,7 @@
   <dimension ref="A4:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I15"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3604,9 +3607,13 @@
       <c r="Q8" s="18">
         <v>1</v>
       </c>
-      <c r="R8" s="18"/>
+      <c r="R8" s="18">
+        <v>1</v>
+      </c>
       <c r="S8" s="16"/>
-      <c r="T8" s="18"/>
+      <c r="T8" s="18">
+        <v>1</v>
+      </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
@@ -3622,7 +3629,7 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="9">
         <f t="shared" ref="AH8:AH15" si="0">SUM(C8:AF8)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI8" s="9">
         <v>24</v>
@@ -3699,9 +3706,13 @@
       <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
       <c r="S9" s="16"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -3716,7 +3727,7 @@
       <c r="AG9" s="16"/>
       <c r="AH9" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI9" s="9">
         <v>24</v>
@@ -3793,9 +3804,13 @@
       <c r="Q10" s="18">
         <v>1</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="18">
+        <v>1</v>
+      </c>
       <c r="S10" s="16"/>
-      <c r="T10" s="18"/>
+      <c r="T10" s="18">
+        <v>1</v>
+      </c>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
@@ -3811,7 +3826,7 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI10" s="9">
         <v>24</v>
@@ -3890,9 +3905,13 @@
       <c r="Q11" s="3">
         <v>1</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
       <c r="S11" s="16"/>
-      <c r="T11" s="14"/>
+      <c r="T11" s="47">
+        <v>1</v>
+      </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -3907,7 +3926,7 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI11" s="9">
         <v>24</v>
@@ -3984,9 +4003,13 @@
       <c r="Q12" s="18">
         <v>1</v>
       </c>
-      <c r="R12" s="18"/>
+      <c r="R12" s="18">
+        <v>1</v>
+      </c>
       <c r="S12" s="16"/>
-      <c r="T12" s="18"/>
+      <c r="T12" s="18">
+        <v>1</v>
+      </c>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
@@ -4002,7 +4025,7 @@
       <c r="AG12" s="16"/>
       <c r="AH12" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI12" s="9">
         <v>24</v>
@@ -4061,9 +4084,13 @@
       <c r="Q13" s="3">
         <v>1</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
       <c r="S13" s="16"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -4078,7 +4105,7 @@
       <c r="AG13" s="16"/>
       <c r="AH13" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI13" s="9">
         <v>24</v>
@@ -4137,9 +4164,13 @@
       <c r="Q14" s="18">
         <v>1</v>
       </c>
-      <c r="R14" s="18"/>
+      <c r="R14" s="18">
+        <v>1</v>
+      </c>
       <c r="S14" s="16"/>
-      <c r="T14" s="18"/>
+      <c r="T14" s="18">
+        <v>1</v>
+      </c>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
@@ -4155,7 +4186,7 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI14" s="9">
         <v>24</v>
@@ -4214,9 +4245,13 @@
       <c r="Q15" s="3">
         <v>1</v>
       </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
       <c r="S15" s="16"/>
-      <c r="T15" s="3"/>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -4232,7 +4267,7 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI15" s="9">
         <v>24</v>
